--- a/data/epa_xls/lmopdataak.xlsx
+++ b/data/epa_xls/lmopdataak.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LMOP\LFDatabase\Website\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LMOP\LFDatabase\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C20C607-D26F-4059-952B-6A1BDC038726}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8740D89D-154A-4F65-8262-DC1A4317B540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{FA24C75D-0FC2-454C-A094-E01EAE6363AF}">
       <text>
         <r>
           <rPr>
@@ -434,12 +434,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Capacity in megawatts for electricity-generating projects
+          <t xml:space="preserve">Actual or estimated electric generation in megawatts for electricity-generating projects
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{0D9A3AB2-1A48-4775-8E2D-6F72735CDA71}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Rated capacity in megawatts for electricity-generating projects
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -453,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -467,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -486,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="155">
   <si>
     <t>GHGRP ID</t>
   </si>
@@ -567,9 +581,6 @@
   </si>
   <si>
     <t>Project Type Category</t>
-  </si>
-  <si>
-    <t>MW Capacity</t>
   </si>
   <si>
     <t>LFG Flow to Project (mmscfd)</t>
@@ -862,9 +873,6 @@
     <t>Specific type of LFG energy project technology</t>
   </si>
   <si>
-    <t>Capacity in megawatts for electricity-generating projects</t>
-  </si>
-  <si>
     <t>Amount of landfill gas flowing to project or that will flow to the project when it becomes operational in million standard cubic feet per day</t>
   </si>
   <si>
@@ -1074,6 +1082,18 @@
   </si>
   <si>
     <t>Kodiak Island Borough, AK</t>
+  </si>
+  <si>
+    <t>Actual MW Generation</t>
+  </si>
+  <si>
+    <t>Rated MW Capacity</t>
+  </si>
+  <si>
+    <t>Actual or estimated electric generation in megawatts for electricity-generating projects</t>
+  </si>
+  <si>
+    <t>Rated capacity in megawatts for electricity-generating projects</t>
   </si>
 </sst>
 </file>
@@ -1497,6 +1517,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1542,19 +1575,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1937,10 +1957,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>91</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>92</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -1962,36 +1982,36 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A9"/>
@@ -2006,70 +2026,70 @@
       <c r="D10"/>
     </row>
     <row r="11" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="A11" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="61"/>
+      <c r="A12" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="66"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="49"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="49"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="49"/>
+      <c r="A15" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="1:4" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="49"/>
+      <c r="C17" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="49"/>
+      <c r="A18" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="49"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="54"/>
     </row>
     <row r="20" spans="1:4" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
@@ -2078,20 +2098,20 @@
       <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="49"/>
+      <c r="A21" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="49"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="54"/>
     </row>
     <row r="23" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
@@ -2102,16 +2122,16 @@
     <row r="24" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="49"/>
+      <c r="C24" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="54"/>
     </row>
     <row r="25" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="38"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2133,14 +2153,14 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Summary for 
 Current LMOP Landfill and LFG Energy Project Database - Alaska</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -2166,7 +2186,7 @@
     <col min="13" max="15" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.33203125" customWidth="1"/>
     <col min="17" max="17" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.33203125" customWidth="1"/>
     <col min="22" max="22" width="12" customWidth="1"/>
@@ -2175,13 +2195,13 @@
     <col min="25" max="25" width="9.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.44140625" customWidth="1"/>
     <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.6640625" style="47" customWidth="1"/>
-    <col min="29" max="29" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="14.21875" style="67" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14.21875" style="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2264,45 +2284,48 @@
         <v>25</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC1" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AF1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="63" t="s">
+      <c r="AG1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="63" t="s">
+    </row>
+    <row r="2" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="B2" s="5">
         <v>1994</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="I2" s="5">
         <v>61.293281</v>
@@ -2311,10 +2334,10 @@
         <v>-149.602138</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="M2" s="5">
         <v>1987</v>
@@ -2323,78 +2346,81 @@
         <v>2043</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="6">
+        <v>9782936</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>2018</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="P2" s="6">
-        <v>9432852</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>2017</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="S2" s="5">
         <v>3.726</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="X2" s="7">
         <v>41121</v>
       </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5">
         <v>5.6</v>
       </c>
       <c r="AD2" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="AE2" s="5">
         <v>2.59</v>
       </c>
-      <c r="AE2" s="64">
-        <v>0.25309999999999999</v>
-      </c>
-      <c r="AF2" s="64">
-        <v>0.29580000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AF2" s="49">
+        <v>0.25301000000000001</v>
+      </c>
+      <c r="AG2" s="49">
+        <v>2.954E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="10">
         <v>1994</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="I3" s="10">
         <v>61.293281</v>
@@ -2403,10 +2429,10 @@
         <v>-149.602138</v>
       </c>
       <c r="K3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="M3" s="10">
         <v>1987</v>
@@ -2415,76 +2441,77 @@
         <v>2043</v>
       </c>
       <c r="O3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="11">
+        <v>9782936</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="P3" s="11">
-        <v>9432852</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="S3" s="10">
         <v>3.726</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X3" s="12">
         <v>41640</v>
       </c>
       <c r="Y3" s="12"/>
       <c r="Z3" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB3" s="10"/>
       <c r="AC3" s="10">
         <v>1.4</v>
       </c>
       <c r="AD3" s="10"/>
-      <c r="AE3" s="65">
-        <v>0.63249999999999995</v>
-      </c>
-      <c r="AF3" s="65">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="50">
+        <v>6.3250000000000001E-2</v>
+      </c>
+      <c r="AG3" s="50">
+        <v>7.3899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B4" s="10">
         <v>11941</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="I4" s="10">
         <v>58.352800000000002</v>
@@ -2493,80 +2520,81 @@
         <v>-134.49469999999999</v>
       </c>
       <c r="K4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="M4" s="10">
         <v>1965</v>
       </c>
       <c r="N4" s="10">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="O4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="11">
+        <v>894521</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="11">
-        <v>864771</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="S4" s="10">
-        <v>0.63100000000000001</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="T4" s="10">
-        <v>0.63100000000000001</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W4" s="10"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-    </row>
-    <row r="5" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+    </row>
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="10">
         <v>12216</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="I5" s="10">
         <v>60.447139999999997</v>
@@ -2575,10 +2603,10 @@
         <v>-151.10369</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M5" s="10">
         <v>1969</v>
@@ -2587,62 +2615,63 @@
         <v>2042</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" s="11">
-        <v>1597199</v>
+        <v>1638604</v>
       </c>
       <c r="Q5" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="W5" s="10"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB5" s="10"/>
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
-      <c r="AE5" s="65"/>
-      <c r="AF5" s="65"/>
-    </row>
-    <row r="6" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+    </row>
+    <row r="6" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="10">
         <v>10960</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="I6" s="10">
         <v>57.80874</v>
@@ -2651,17 +2680,17 @@
         <v>-152.40761000000001</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10">
         <v>2014</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P6" s="11">
         <v>228688</v>
@@ -2670,55 +2699,56 @@
         <v>2007</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="W6" s="10"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
-    </row>
-    <row r="7" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+    </row>
+    <row r="7" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="10">
         <v>11020</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I7" s="10">
         <v>61.21266</v>
@@ -2727,10 +2757,10 @@
         <v>-149.84012000000001</v>
       </c>
       <c r="K7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="M7" s="10">
         <v>1960</v>
@@ -2739,7 +2769,7 @@
         <v>1987</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P7" s="11">
         <v>3295353</v>
@@ -2748,59 +2778,60 @@
         <v>1987</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S7" s="10">
-        <v>0.16300000000000001</v>
+        <v>0.109</v>
       </c>
       <c r="T7" s="10">
-        <v>0.16300000000000001</v>
+        <v>0.109</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-    </row>
-    <row r="8" spans="1:32" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+    </row>
+    <row r="8" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" s="10">
         <v>10980</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="I8" s="10">
         <v>61.59</v>
@@ -2809,76 +2840,77 @@
         <v>-149.21</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M8" s="10">
         <v>1980</v>
       </c>
       <c r="N8" s="10">
-        <v>2164</v>
+        <v>2168</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P8" s="11">
-        <v>1786672</v>
+        <v>1864879</v>
       </c>
       <c r="Q8" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W8" s="10"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA8" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-    </row>
-    <row r="9" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+    </row>
+    <row r="9" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="10">
         <v>10961</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="I9" s="10">
         <v>64.804760000000002</v>
@@ -2887,74 +2919,75 @@
         <v>-147.70085</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M9" s="10">
         <v>1963</v>
       </c>
       <c r="N9" s="10">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P9" s="11">
-        <v>4179586</v>
+        <v>4284358</v>
       </c>
       <c r="Q9" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W9" s="10"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
       <c r="Z9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-    </row>
-    <row r="10" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+    </row>
+    <row r="10" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="14">
         <v>11000</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="I10" s="14">
         <v>53.884630000000001</v>
@@ -2963,10 +2996,10 @@
         <v>-166.50657000000001</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M10" s="14">
         <v>1970</v>
@@ -2975,38 +3008,39 @@
         <v>2013</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P10" s="15"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
       <c r="U10" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V10" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W10" s="14"/>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA10" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB10" s="14"/>
       <c r="AC10" s="14"/>
       <c r="AD10" s="14"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="51"/>
+      <c r="AG10" s="51"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG10">
     <sortCondition ref="C2:C10"/>
     <sortCondition ref="U2:U10"/>
   </sortState>
@@ -3015,7 +3049,7 @@
   <pageMargins left="0" right="0" top="0.8" bottom="0.9" header="0.4" footer="0.3"/>
   <pageSetup paperSize="5" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Alaska&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddHeader>
+    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Alaska&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;8&amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
@@ -3027,7 +3061,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3045,10 +3079,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>94</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3056,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3064,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3072,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3080,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3088,7 +3122,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3096,7 +3130,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3104,7 +3138,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3112,7 +3146,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3120,7 +3154,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3128,7 +3162,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3136,7 +3170,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3144,7 +3178,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3152,7 +3186,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3160,7 +3194,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3168,7 +3202,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3176,7 +3210,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3184,7 +3218,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24" x14ac:dyDescent="0.25">
@@ -3192,7 +3226,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3200,7 +3234,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3208,7 +3242,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3216,7 +3250,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3224,7 +3258,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3232,7 +3266,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3240,7 +3274,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3248,7 +3282,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3256,7 +3290,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3264,53 +3298,61 @@
         <v>25</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>119</v>
+      <c r="A30" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>120</v>
+      <c r="A31" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>122</v>
+      <c r="B34" s="46" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="85" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12LMOP Database Field Descriptions</oddHeader>
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F</oddFooter>
